--- a/infrastructure_testing_files/dcp_scale_test_metadata_100_glioblastoma_cells.xlsx
+++ b/infrastructure_testing_files/dcp_scale_test_metadata_100_glioblastoma_cells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mfreeberg/git/metadata-schema/infrastructure_testing_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A3E03CF2-44F3-6C4D-A2A5-78C3CCA04D52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62412AD6-7803-9946-A5F3-885880410CAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -5939,8 +5939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AF905"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6:AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33658,7 +33658,7 @@
     <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>233</v>
       </c>
